--- a/dummydata/items.xlsx
+++ b/dummydata/items.xlsx
@@ -882,7 +882,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -899,7 +899,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -916,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -933,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -950,7 +950,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -967,7 +967,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -984,7 +984,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -1001,7 +1001,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -1018,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -1035,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -1052,7 +1052,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -1086,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -1103,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -1120,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -1137,7 +1137,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -1154,7 +1154,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -1171,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -1188,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -1205,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -1222,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -1239,7 +1239,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
@@ -1256,7 +1256,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -1273,7 +1273,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -1290,7 +1290,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -1307,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -1324,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -1358,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -1375,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -1392,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -1409,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -1426,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -1443,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -1477,7 +1477,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,7 +1494,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -1511,7 +1511,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -1528,7 +1528,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -1545,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -1562,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -1579,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -1596,7 +1596,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -1613,7 +1613,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -1630,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -1647,7 +1647,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -1664,7 +1664,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -1698,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -1715,7 +1715,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -1732,7 +1732,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
@@ -1749,7 +1749,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -1766,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="E54" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -1783,7 +1783,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -1800,7 +1800,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -1817,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="E57" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -1834,7 +1834,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -1851,7 +1851,7 @@
         <v>6</v>
       </c>
       <c r="E59" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -1868,7 +1868,7 @@
         <v>8</v>
       </c>
       <c r="E60" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
@@ -1885,7 +1885,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
@@ -1902,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="E62" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -1919,7 +1919,7 @@
         <v>8</v>
       </c>
       <c r="E63" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
@@ -1936,7 +1936,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
@@ -1953,7 +1953,7 @@
         <v>6</v>
       </c>
       <c r="E65" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -1970,7 +1970,7 @@
         <v>8</v>
       </c>
       <c r="E66" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -1987,7 +1987,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
@@ -2004,7 +2004,7 @@
         <v>6</v>
       </c>
       <c r="E68" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -2021,7 +2021,7 @@
         <v>8</v>
       </c>
       <c r="E69" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
@@ -2038,7 +2038,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
@@ -2055,7 +2055,7 @@
         <v>6</v>
       </c>
       <c r="E71" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
@@ -2072,7 +2072,7 @@
         <v>8</v>
       </c>
       <c r="E72" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
@@ -2089,7 +2089,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
@@ -2106,7 +2106,7 @@
         <v>6</v>
       </c>
       <c r="E74" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -2123,7 +2123,7 @@
         <v>8</v>
       </c>
       <c r="E75" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
@@ -2140,7 +2140,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
@@ -2157,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="E77" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
@@ -2174,7 +2174,7 @@
         <v>8</v>
       </c>
       <c r="E78" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
@@ -2191,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -2208,7 +2208,7 @@
         <v>6</v>
       </c>
       <c r="E80" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -2225,7 +2225,7 @@
         <v>8</v>
       </c>
       <c r="E81" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
@@ -2242,7 +2242,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -2259,7 +2259,7 @@
         <v>6</v>
       </c>
       <c r="E83" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -2276,7 +2276,7 @@
         <v>8</v>
       </c>
       <c r="E84" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
@@ -2293,7 +2293,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
@@ -2310,7 +2310,7 @@
         <v>6</v>
       </c>
       <c r="E86" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
@@ -2327,7 +2327,7 @@
         <v>8</v>
       </c>
       <c r="E87" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
@@ -2344,7 +2344,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
@@ -2361,7 +2361,7 @@
         <v>6</v>
       </c>
       <c r="E89" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
@@ -2378,7 +2378,7 @@
         <v>8</v>
       </c>
       <c r="E90" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
@@ -2395,7 +2395,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
@@ -2412,7 +2412,7 @@
         <v>6</v>
       </c>
       <c r="E92" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
@@ -2429,7 +2429,7 @@
         <v>8</v>
       </c>
       <c r="E93" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
@@ -2446,7 +2446,7 @@
         <v>10</v>
       </c>
       <c r="E94" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
@@ -2463,7 +2463,7 @@
         <v>6</v>
       </c>
       <c r="E95" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
@@ -2480,7 +2480,7 @@
         <v>8</v>
       </c>
       <c r="E96" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
@@ -2497,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
@@ -2514,7 +2514,7 @@
         <v>6</v>
       </c>
       <c r="E98" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
@@ -2531,7 +2531,7 @@
         <v>8</v>
       </c>
       <c r="E99" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
@@ -2548,7 +2548,7 @@
         <v>10</v>
       </c>
       <c r="E100" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
@@ -2565,7 +2565,7 @@
         <v>6</v>
       </c>
       <c r="E101" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
@@ -2582,7 +2582,7 @@
         <v>8</v>
       </c>
       <c r="E102" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -2599,7 +2599,7 @@
         <v>10</v>
       </c>
       <c r="E103" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
@@ -2616,7 +2616,7 @@
         <v>6</v>
       </c>
       <c r="E104" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
@@ -2633,7 +2633,7 @@
         <v>8</v>
       </c>
       <c r="E105" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E106" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
@@ -2667,7 +2667,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
@@ -2684,7 +2684,7 @@
         <v>8</v>
       </c>
       <c r="E108" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
@@ -2701,7 +2701,7 @@
         <v>10</v>
       </c>
       <c r="E109" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
@@ -2718,7 +2718,7 @@
         <v>6</v>
       </c>
       <c r="E110" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
@@ -2735,7 +2735,7 @@
         <v>8</v>
       </c>
       <c r="E111" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
@@ -2752,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="E112" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
@@ -2769,7 +2769,7 @@
         <v>6</v>
       </c>
       <c r="E113" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
@@ -2786,7 +2786,7 @@
         <v>8</v>
       </c>
       <c r="E114" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
@@ -2803,7 +2803,7 @@
         <v>10</v>
       </c>
       <c r="E115" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="116">
@@ -2820,7 +2820,7 @@
         <v>6</v>
       </c>
       <c r="E116" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="117">
@@ -2837,7 +2837,7 @@
         <v>8</v>
       </c>
       <c r="E117" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
@@ -2854,7 +2854,7 @@
         <v>10</v>
       </c>
       <c r="E118" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
@@ -2871,7 +2871,7 @@
         <v>6</v>
       </c>
       <c r="E119" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="120">
@@ -2888,7 +2888,7 @@
         <v>8</v>
       </c>
       <c r="E120" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="121">
@@ -2905,7 +2905,7 @@
         <v>10</v>
       </c>
       <c r="E121" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="122">
@@ -2922,7 +2922,7 @@
         <v>6</v>
       </c>
       <c r="E122" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="123">
@@ -2939,7 +2939,7 @@
         <v>8</v>
       </c>
       <c r="E123" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="124">
@@ -2956,7 +2956,7 @@
         <v>10</v>
       </c>
       <c r="E124" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="125">
@@ -2973,7 +2973,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="126">
@@ -2990,7 +2990,7 @@
         <v>8</v>
       </c>
       <c r="E126" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="127">
@@ -3007,7 +3007,7 @@
         <v>10</v>
       </c>
       <c r="E127" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="128">
@@ -3024,7 +3024,7 @@
         <v>6</v>
       </c>
       <c r="E128" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="129">
@@ -3041,7 +3041,7 @@
         <v>8</v>
       </c>
       <c r="E129" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="130">
@@ -3058,7 +3058,7 @@
         <v>10</v>
       </c>
       <c r="E130" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="131">
@@ -3075,7 +3075,7 @@
         <v>6</v>
       </c>
       <c r="E131" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="132">
@@ -3092,7 +3092,7 @@
         <v>8</v>
       </c>
       <c r="E132" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="133">
@@ -3109,7 +3109,7 @@
         <v>10</v>
       </c>
       <c r="E133" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="134">
@@ -3126,7 +3126,7 @@
         <v>6</v>
       </c>
       <c r="E134" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="135">
@@ -3143,7 +3143,7 @@
         <v>8</v>
       </c>
       <c r="E135" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="136">
@@ -3160,7 +3160,7 @@
         <v>10</v>
       </c>
       <c r="E136" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="137">
@@ -3177,7 +3177,7 @@
         <v>6</v>
       </c>
       <c r="E137" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="138">
@@ -3194,7 +3194,7 @@
         <v>8</v>
       </c>
       <c r="E138" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="139">
@@ -3211,7 +3211,7 @@
         <v>10</v>
       </c>
       <c r="E139" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="140">
@@ -3228,7 +3228,7 @@
         <v>6</v>
       </c>
       <c r="E140" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="141">
@@ -3245,7 +3245,7 @@
         <v>8</v>
       </c>
       <c r="E141" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="142">
@@ -3262,7 +3262,7 @@
         <v>10</v>
       </c>
       <c r="E142" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="143">
@@ -3279,7 +3279,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="144">
@@ -3296,7 +3296,7 @@
         <v>8</v>
       </c>
       <c r="E144" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="145">
@@ -3313,7 +3313,7 @@
         <v>10</v>
       </c>
       <c r="E145" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="146">
@@ -3330,7 +3330,7 @@
         <v>6</v>
       </c>
       <c r="E146" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="147">
@@ -3347,7 +3347,7 @@
         <v>8</v>
       </c>
       <c r="E147" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="148">
@@ -3364,7 +3364,7 @@
         <v>10</v>
       </c>
       <c r="E148" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="149">
@@ -3381,7 +3381,7 @@
         <v>6</v>
       </c>
       <c r="E149" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="150">
@@ -3398,7 +3398,7 @@
         <v>8</v>
       </c>
       <c r="E150" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="151">
@@ -3415,7 +3415,7 @@
         <v>10</v>
       </c>
       <c r="E151" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="152">
@@ -3432,7 +3432,7 @@
         <v>6</v>
       </c>
       <c r="E152" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="153">
@@ -3449,7 +3449,7 @@
         <v>8</v>
       </c>
       <c r="E153" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="154">
@@ -3466,7 +3466,7 @@
         <v>10</v>
       </c>
       <c r="E154" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="155">
@@ -3483,7 +3483,7 @@
         <v>6</v>
       </c>
       <c r="E155" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="156">
@@ -3500,7 +3500,7 @@
         <v>8</v>
       </c>
       <c r="E156" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="157">
@@ -3517,7 +3517,7 @@
         <v>10</v>
       </c>
       <c r="E157" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="158">
@@ -3534,7 +3534,7 @@
         <v>6</v>
       </c>
       <c r="E158" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="159">
@@ -3551,7 +3551,7 @@
         <v>8</v>
       </c>
       <c r="E159" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="160">
@@ -3568,7 +3568,7 @@
         <v>10</v>
       </c>
       <c r="E160" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="161">
@@ -3585,7 +3585,7 @@
         <v>6</v>
       </c>
       <c r="E161" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="162">
@@ -3602,7 +3602,7 @@
         <v>8</v>
       </c>
       <c r="E162" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="163">
@@ -3619,7 +3619,7 @@
         <v>10</v>
       </c>
       <c r="E163" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="164">
@@ -3636,7 +3636,7 @@
         <v>6</v>
       </c>
       <c r="E164" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="165">
@@ -3653,7 +3653,7 @@
         <v>8</v>
       </c>
       <c r="E165" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="166">
@@ -3670,7 +3670,7 @@
         <v>10</v>
       </c>
       <c r="E166" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="167">
@@ -3687,7 +3687,7 @@
         <v>6</v>
       </c>
       <c r="E167" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="168">
@@ -3704,7 +3704,7 @@
         <v>8</v>
       </c>
       <c r="E168" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="169">
@@ -3721,7 +3721,7 @@
         <v>10</v>
       </c>
       <c r="E169" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="170">
@@ -3738,7 +3738,7 @@
         <v>6</v>
       </c>
       <c r="E170" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="171">
@@ -3755,7 +3755,7 @@
         <v>8</v>
       </c>
       <c r="E171" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="172">
@@ -3772,7 +3772,7 @@
         <v>10</v>
       </c>
       <c r="E172" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="173">
@@ -3789,7 +3789,7 @@
         <v>6</v>
       </c>
       <c r="E173" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="174">
@@ -3806,7 +3806,7 @@
         <v>8</v>
       </c>
       <c r="E174" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="175">
@@ -3823,7 +3823,7 @@
         <v>10</v>
       </c>
       <c r="E175" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="176">
@@ -3840,7 +3840,7 @@
         <v>6</v>
       </c>
       <c r="E176" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="177">
@@ -3857,7 +3857,7 @@
         <v>8</v>
       </c>
       <c r="E177" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="178">
@@ -3874,7 +3874,7 @@
         <v>10</v>
       </c>
       <c r="E178" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="179">
@@ -3891,7 +3891,7 @@
         <v>6</v>
       </c>
       <c r="E179" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="180">
@@ -3908,7 +3908,7 @@
         <v>8</v>
       </c>
       <c r="E180" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="181">
@@ -3925,7 +3925,7 @@
         <v>10</v>
       </c>
       <c r="E181" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="182">
@@ -3942,7 +3942,7 @@
         <v>6</v>
       </c>
       <c r="E182" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="183">
@@ -3959,7 +3959,7 @@
         <v>8</v>
       </c>
       <c r="E183" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="184">
@@ -3976,7 +3976,7 @@
         <v>10</v>
       </c>
       <c r="E184" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
